--- a/q22/Q22填表答案_向量结果.xlsx
+++ b/q22/Q22填表答案_向量结果.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +451,8 @@
           <t>sub001</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[-24.808, -33.3708, -48.0588, -65.5205, -77.7787]</t>
-        </is>
+      <c r="B2" t="n">
+        <v>-49.94752</v>
       </c>
     </row>
     <row r="3">
@@ -463,1186 +461,1118 @@
           <t>sub002</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[-5.6389, -4.5446, -5.0841, -0.4689, 0.6038]</t>
-        </is>
+      <c r="B3" t="n">
+        <v>-2.27486</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sub003</t>
+          <t>sub002</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-8.5459, -16.674, -22.9482]</t>
+          <t>[-4.594, -3.4541, -3.8033, -0.0412, 0.5183]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sub004</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[-4.4631, 0.0556, 15.0052, 29.4808]</t>
-        </is>
+          <t>sub003</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-16.14103333333334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sub005</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[-29.3452, -3.396, 12.8076]</t>
-        </is>
+          <t>sub004</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11.24605</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sub006</t>
+          <t>sub004</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-79.4804, -71.6469, -41.2703, -6.6205, -0.9371]</t>
+          <t>[-3.426, 1.1539, 16.3296, 30.9267]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sub007</t>
+          <t>sub005</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[-13.1382, 2.7749, -0.4061, -6.0887, -16.3662, -10.572, -3.4906]</t>
+          <t>[-28.2926, -2.2622, 14.17]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sub008</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[-1.5105, -15.6147, -51.8856, -34.914]</t>
-        </is>
+          <t>sub005</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-5.4616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sub009</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[-1.0973, -1.2855, -25.463]</t>
-        </is>
+          <t>sub006</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-39.99103999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sub010</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[-3.0525, -3.6628, -13.6698, -10.274, 0.0]</t>
-        </is>
+          <t>sub007</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-6.755271428571429</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sub011</t>
+          <t>sub008</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[8.1015, 12.8555, 13.2014]</t>
+          <t>[4.4954, -13.3486, -24.7935, -1.972]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sub012</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[2.5535, 1.8492, 6.181, 2.7418, 9.3331, -23.2503, -0.9955]</t>
-        </is>
+          <t>sub008</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-8.904675000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sub013</t>
+          <t>sub009</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[3.7631, 7.8906, -15.231, -7.072, -1.754]</t>
+          <t>[-0.0615, -0.1024, -24.1918]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sub014</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[5.4369, 0.1004, 4.1509]</t>
-        </is>
+          <t>sub009</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-8.118566666666668</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sub015</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[11.6733, 17.9081, -55.3412, -30.0197]</t>
-        </is>
+          <t>sub010</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-6.474680000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>sub016</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[-4.9518, -11.3726, -61.3031]</t>
-        </is>
+          <t>sub011</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>11.38613333333333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sub017</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[1.3095, -3.4063, -44.436, -34.853]</t>
-        </is>
+          <t>sub012</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6638714285714284</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>sub018</t>
+          <t>sub012</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[-6.2018, -19.4562, -24.6167, -28.9861]</t>
+          <t>[3.5944, 2.9269, 7.3244, 4.03, 10.8099, -23.0237, -1.0148]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sub019</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[7.2605, 2.527, 2.4702, 9.3728, 6.9098, 0.0]</t>
-        </is>
+          <t>sub013</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-2.9236</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sub020</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>[17.5417, 17.6077, 20.3626, 13.2383, 0.0002]</t>
-        </is>
+          <t>sub014</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4.424399999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>sub021</t>
+          <t>sub014</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[11.1512, 7.0371, 12.2459, 25.5236]</t>
+          <t>[6.474, 1.2228, 5.5764]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>sub022</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>[11.3795, 11.071, 32.3354]</t>
-        </is>
+          <t>sub015</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-13.944875</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>sub023</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>[-29.8915, -28.3319, -41.808, -40.009, -30.197, -3.868, -0.377]</t>
-        </is>
+          <t>sub016</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-25.9526</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sub024</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>[5.3274, 8.4632, -1.124, 0.0]</t>
-        </is>
+          <t>sub017</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-21.15065</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sub025</t>
+          <t>sub018</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[15.3625, 8.2859, 1.3682]</t>
+          <t>[-5.1667, -18.3632, -23.4394, -27.5546]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>sub026</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>[2.9082, 5.6799, -14.6454, -8.1074]</t>
-        </is>
+          <t>sub018</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-18.630975</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sub027</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>[16.861, -14.8317, 13.1159, 23.3091]</t>
-        </is>
+          <t>sub019</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>5.4431</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sub028</t>
+          <t>sub019</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[7.5071, -1.7001, -10.9668, -34.1861, 3.3228]</t>
+          <t>[8.3284, 3.6304, 3.6625, 10.6277, 6.4096, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sub029</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>[-20.3992, -35.4636, 2.8352, 10.4053]</t>
-        </is>
+          <t>sub020</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>14.29286</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sub030</t>
+          <t>sub020</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[-0.5084, -19.5108, -72.2454, -38.4112, -56.2439]</t>
+          <t>[18.5775, 18.6645, 21.5323, 12.6898, 0.0002]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>sub031</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>[6.6282, -11.4148, -19.5967]</t>
-        </is>
+          <t>sub021</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>13.9328</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>sub032</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>[23.2931, 20.1887, 36.113]</t>
-        </is>
+          <t>sub022</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>18.26196666666667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>sub033</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>[22.8633, 19.4657, 6.3723, 12.6049, 46.623, 32.5482]</t>
-        </is>
+          <t>sub023</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-25.17154285714286</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>sub034</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>[13.0092, -9.1235, -48.4073, -30.6588]</t>
-        </is>
+          <t>sub024</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2.680575</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>sub035</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>[1.7934, -1.9361, 7.9484, 26.934, 26.1464, 25.5028]</t>
-        </is>
+          <t>sub025</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>8.257299999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>sub036</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>[7.44, -8.3042, 25.411, 13.6224, 28.3353]</t>
-        </is>
+          <t>sub026</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-3.59165</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>sub037</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>[4.1141, -15.0343, -30.6578, -3.0311, 8.1048]</t>
-        </is>
+          <t>sub027</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>9.558125</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sub038</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>[19.6172, 14.3643, 3.3055, 10.9515, 20.1519]</t>
-        </is>
+          <t>sub028</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-7.253359999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>sub039</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>[7.9361, -1.9605, -18.7098, -29.0503, -83.8486, -66.5197, 14.7029]</t>
-        </is>
+          <t>sub029</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-10.71145</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>sub040</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>[19.6022, 8.5426, -6.2024, -1.0554, -50.8785, -6.4642]</t>
-        </is>
+          <t>sub030</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-37.38394</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>sub041</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>[18.8342, 18.2779, 13.333, 45.2657]</t>
-        </is>
+          <t>sub031</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-8.215</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sub042</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>[0.4259, -1.6671, 13.2066, -0.625]</t>
-        </is>
+          <t>sub032</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>26.46136666666667</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>sub043</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>[3.6491, -2.4167, 4.8721, 15.7006]</t>
-        </is>
+          <t>sub033</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>23.36391666666666</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>sub044</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>[-1.7767, -13.4339, -30.8021, -43.1191, -9.3715, -0.057]</t>
-        </is>
+          <t>sub034</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-18.849675</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>sub045</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>[17.5951, 15.4878, 5.1338, 13.5676]</t>
-        </is>
+          <t>sub035</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>14.39815</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>sub046</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>[-13.6598, -15.8331, 8.6508]</t>
-        </is>
+          <t>sub036</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>13.25504</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sub047</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>[18.2271, 16.2898, 12.8463, 23.742]</t>
-        </is>
+          <t>sub037</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-7.35112</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>sub048</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>[19.5302, -5.892, -14.7469, -29.1225]</t>
-        </is>
+          <t>sub038</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>13.6427</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sub049</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>[20.6975, 21.8375, 30.2507, 42.4993]</t>
-        </is>
+          <t>sub039</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-25.39667142857143</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>sub050</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>[15.8023, 14.9984, 23.9781]</t>
-        </is>
+          <t>sub040</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-6.1154</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>sub051</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>[7.4901, -0.7607, 34.5568, 42.1827, 7.9046]</t>
-        </is>
+          <t>sub041</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>23.879275</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>sub052</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>[17.1831, -17.7584, -36.0567, -23.7705, 0.2662, 0.0]</t>
-        </is>
+          <t>sub042</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.8351</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>sub053</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>[7.3111, 3.5608, -9.5, 27.2848]</t>
-        </is>
+          <t>sub043</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>5.38045</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>sub054</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>[11.3752, 9.0715, 13.072, 22.2641]</t>
-        </is>
+          <t>sub044</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>-16.46566666666667</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>sub055</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>[8.5862, -11.053, -12.9484]</t>
-        </is>
+          <t>sub045</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>12.910175</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>sub056</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>[-5.6619, -7.8777, -8.2323, -0.3917, 9.3675, 8.9908, 37.7535, 43.2929, 49.0915]</t>
-        </is>
+          <t>sub046</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-6.978699999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>sub057</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>[15.9053, 16.5355, 35.4503]</t>
-        </is>
+          <t>sub047</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>17.701275</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>sub058</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>[13.1735, 6.6119, 11.4063]</t>
-        </is>
+          <t>sub048</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-7.6248</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>sub059</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>[10.8235, 2.718, -1.488]</t>
-        </is>
+          <t>sub049</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>28.762975</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>sub060</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>[-9.6368, -19.247, -13.1176, -8.8408, -4.4006, -6.5761, 8.0061, 22.0871, 27.7395]</t>
-        </is>
+          <t>sub050</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>18.20533333333333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>sub061</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>[8.8032, 3.3204, -28.1062, -40.5819, -51.3292, -67.193]</t>
-        </is>
+          <t>sub051</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>18.242</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>sub062</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>[13.95, 12.2122, 15.2051]</t>
-        </is>
+          <t>sub052</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>-10.04545</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>sub063</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>[17.0275, 16.8137, 7.1361, -19.4823, -18.9861, -0.5073, -94.0399, -24.4196]</t>
-        </is>
+          <t>sub053</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>7.116875</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>sub064</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>[5.9425, 10.5661, 24.3238, 15.7722, -0.0275, 0.0]</t>
-        </is>
+          <t>sub054</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>13.901825</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>sub065</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>[-20.9989, -13.2612, -14.3689, -1.3161]</t>
-        </is>
+          <t>sub055</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>-5.211966666666666</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>sub066</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>[4.1988, -14.8479, -6.595, 7.6034, 29.7294]</t>
-        </is>
+          <t>sub056</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>13.98993333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>sub067</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>[9.5248, 13.9478, 29.8153]</t>
-        </is>
+          <t>sub057</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>22.57493333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>sub068</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>[9.3941, 3.3447, -16.0168, -7.5936, -7.0056, 0.0119, -0.451, 0.0]</t>
-        </is>
+          <t>sub058</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>10.31513333333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>sub069</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>[-24.3793, -21.8216, 6.9137, 20.2677, 23.4982]</t>
-        </is>
+          <t>sub059</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>4.430033333333333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>sub070</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>[5.392, 4.5351, 5.621]</t>
-        </is>
+          <t>sub060</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>-0.4884888888888877</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>sub071</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>[-14.4551, -17.2395, 15.4691, -25.0026, -39.5461, -0.487]</t>
-        </is>
+          <t>sub061</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>-29.23713333333333</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>sub072</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>[2.9849, -1.5253, 27.0573]</t>
-        </is>
+          <t>sub062</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>13.71893333333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>sub073</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>[20.1011, 19.1247, 27.5897]</t>
-        </is>
+          <t>sub063</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>-14.6062125</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>sub074</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>[-5.2789, -16.7459, -29.2358, -46.3105, -58.3401, -23.649]</t>
-        </is>
+          <t>sub064</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>9.429516666666666</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sub075</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>[-4.063, 2.4531, -8.737, 6.713, -11.202]</t>
-        </is>
+          <t>sub065</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>-12.53335</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>sub076</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>[13.8851, 12.9837, 17.0396, 24.1851, 40.7204]</t>
-        </is>
+          <t>sub066</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>3.95328</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>sub077</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>[15.0721, -6.6666, 4.7913, -9.1536, 7.9034]</t>
-        </is>
+          <t>sub067</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>17.76263333333333</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>sub078</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>[11.9654, 14.1762, -2.378]</t>
-        </is>
+          <t>sub068</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>-2.307275</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>sub079</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>[4.9025, 9.9932, -9.754, -1.794, -0.053]</t>
-        </is>
+          <t>sub069</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.8957399999999993</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>sub080</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>[12.1321, 11.6505, 37.4077]</t>
-        </is>
+          <t>sub070</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>5.1827</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>sub081</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>[16.0474, 9.5215, 16.9336, 32.9004, 0.0091]</t>
-        </is>
+          <t>sub071</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>-13.54353333333333</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>sub082</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>[-9.8338, -2.6797, 7.4169]</t>
-        </is>
+          <t>sub072</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>9.505633333333334</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>sub083</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>[1.3265, -12.9768, -14.2681]</t>
-        </is>
+          <t>sub073</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>22.19813333333333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>sub084</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>[20.8231, 13.5312, 5.4377, 0.1463, -2.1648]</t>
-        </is>
+          <t>sub074</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>-29.98445</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>sub085</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>[-29.6238, -22.8988, -33.298, -20.5869, 20.3678, 30.4925]</t>
-        </is>
+          <t>sub075</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>-2.96718</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>sub086</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>[10.243, 15.6213, 37.9131, 7.9005]</t>
-        </is>
+          <t>sub076</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>21.71322</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>sub087</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>[23.6411, 23.3521, 39.3865, 44.4828, 0.0]</t>
-        </is>
+          <t>sub077</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2.3404</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>sub088</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>[-6.3553, -0.4394, -29.34]</t>
-        </is>
+          <t>sub078</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>7.404866666666667</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>sub089</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>[3.583, -0.3097, -43.7407, -21.7073]</t>
-        </is>
+          <t>sub079</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.3346600000000001</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>sub090</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>[-5.5389, -51.4393, 19.2048, 35.6795]</t>
-        </is>
+          <t>sub080</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>20.33836666666667</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>sub091</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>[11.8204, 8.9319, 21.5904, 26.5778]</t>
-        </is>
+          <t>sub081</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>15.0824</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>sub092</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>[12.2909, 14.6711, -6.7655, -8.1819]</t>
-        </is>
+          <t>sub082</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-1.767633333333333</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>sub093</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>[6.9832, 9.8637, 10.5608, -4.8811, -3.258]</t>
-        </is>
+          <t>sub083</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>-8.7142</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>sub094</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>[16.6241, 10.368, 13.2128, 33.8148, 0.0]</t>
-        </is>
+          <t>sub084</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>7.482400000000001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>sub095</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>[10.8052, -58.3813, -68.2538, -123.1476, -76.8533]</t>
-        </is>
+          <t>sub085</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>-9.313633333333334</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>sub096</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>[7.2305, 9.6764, 23.7608, 19.744, 2.2034, 0.0135]</t>
-        </is>
+          <t>sub086</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>17.919475</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>sub097</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>[13.92, 17.6185, 35.2037]</t>
-        </is>
+          <t>sub087</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>26.14566</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>sub098</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>[-15.757, -1.9546, 11.2275, 7.3726, 10.9557]</t>
-        </is>
+          <t>sub088</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>-12.53596666666667</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>sub099</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>[14.494, 5.693, -3.8974]</t>
-        </is>
+          <t>sub089</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>-15.543675</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
+          <t>sub090</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>-0.5833750000000002</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>sub091</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>17.230125</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>sub092</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>3.00365</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>sub093</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>3.632</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>sub094</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>14.75548</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>sub095</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-63.20434</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>sub096</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>10.4381</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>sub097</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>22.17703333333333</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>sub098</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>2.32624</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>sub099</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>5.345666666666666</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
           <t>sub100</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>[16.6002, 20.427, 35.1175]</t>
-        </is>
+      <c r="B111" t="n">
+        <v>23.98100000000001</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>sub101</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>14.2872</v>
       </c>
     </row>
   </sheetData>

--- a/q22/Q22填表答案_向量结果.xlsx
+++ b/q22/Q22填表答案_向量结果.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-49.94752</v>
+        <v>-49.90736</v>
       </c>
     </row>
     <row r="3">
@@ -462,957 +462,957 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2.27486</v>
+        <v>-3.02654</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sub002</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[-4.594, -3.4541, -3.8033, -0.0412, 0.5183]</t>
-        </is>
+          <t>sub003</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-16.05603333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sub003</t>
+          <t>sub004</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-16.14103333333334</v>
+        <v>10.019625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sub004</t>
+          <t>sub005</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.24605</v>
+        <v>-6.644533333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sub004</t>
+          <t>sub006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-3.426, 1.1539, 16.3296, 30.9267]</t>
+          <t>[-79.4804, -71.6469, -41.2703, -6.6205, -0.9371]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sub005</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[-28.2926, -2.2622, 14.17]</t>
-        </is>
+          <t>sub006</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-39.99103999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sub005</t>
+          <t>sub007</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.4616</v>
+        <v>-6.755271428571429</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sub006</t>
+          <t>sub008</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-39.99103999999999</v>
+        <v>-25.9812</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sub007</t>
+          <t>sub009</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.755271428571429</v>
+        <v>-9.281933333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sub008</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[4.4954, -13.3486, -24.7935, -1.972]</t>
-        </is>
+          <t>sub010</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-6.13182</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sub008</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-8.904675000000001</v>
+          <t>sub011</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[8.1015, 12.8555, 13.2014]</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sub009</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[-0.0615, -0.1024, -24.1918]</t>
-        </is>
+          <t>sub011</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11.38613333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sub009</t>
+          <t>sub012</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.118566666666668</v>
+        <v>-0.2267428571428571</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sub010</t>
+          <t>sub013</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-6.474680000000001</v>
+        <v>-2.48066</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>sub011</t>
+          <t>sub014</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.38613333333333</v>
+        <v>3.2294</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sub012</t>
+          <t>sub015</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6638714285714284</v>
+        <v>-13.944875</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>sub012</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[3.5944, 2.9269, 7.3244, 4.03, 10.8099, -23.0237, -1.0148]</t>
-        </is>
+          <t>sub016</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-25.87583333333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sub013</t>
+          <t>sub017</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-2.9236</v>
+        <v>-20.34645</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sub014</t>
+          <t>sub018</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.424399999999999</v>
+        <v>-19.8152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>sub014</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>[6.474, 1.2228, 5.5764]</t>
-        </is>
+          <t>sub019</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4.756716666666667</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>sub015</t>
+          <t>sub020</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-13.944875</v>
+        <v>13.7501</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>sub016</t>
+          <t>sub021</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-25.9526</v>
+        <v>13.98945</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sub017</t>
+          <t>sub022</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-21.15065</v>
+        <v>18.26196666666667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sub018</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>[-5.1667, -18.3632, -23.4394, -27.5546]</t>
-        </is>
+          <t>sub023</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-24.92605714285714</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>sub018</t>
+          <t>sub024</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-18.630975</v>
+        <v>3.16665</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sub019</t>
+          <t>sub025</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.4431</v>
+        <v>8.338866666666668</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sub019</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>[8.3284, 3.6304, 3.6625, 10.6277, 6.4096, 0.0]</t>
-        </is>
+          <t>sub026</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-3.541175</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sub020</t>
+          <t>sub027</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>14.29286</v>
+        <v>9.613575000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sub020</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>[18.5775, 18.6645, 21.5323, 12.6898, 0.0002]</t>
-        </is>
+          <t>sub028</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-7.20462</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>sub021</t>
+          <t>sub029</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.9328</v>
+        <v>-10.655575</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>sub022</t>
+          <t>sub030</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>18.26196666666667</v>
+        <v>-37.38394</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>sub023</t>
+          <t>sub031</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-25.17154285714286</v>
+        <v>-8.127766666666666</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>sub024</t>
+          <t>sub032</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.680575</v>
+        <v>26.5316</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>sub025</t>
+          <t>sub033</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8.257299999999999</v>
+        <v>23.4129</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>sub026</t>
+          <t>sub034</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-3.59165</v>
+        <v>-18.7951</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>sub027</t>
+          <t>sub035</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.558125</v>
+        <v>14.39815</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sub028</t>
+          <t>sub036</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-7.253359999999999</v>
+        <v>13.3009</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>sub029</t>
+          <t>sub037</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-10.71145</v>
+        <v>-7.300860000000002</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>sub030</t>
+          <t>sub038</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.38394</v>
+        <v>13.67808</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>sub031</t>
+          <t>sub039</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-8.215</v>
+        <v>-25.34998571428572</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sub032</t>
+          <t>sub040</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>26.46136666666667</v>
+        <v>-6.07595</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>sub033</t>
+          <t>sub041</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>23.36391666666666</v>
+        <v>23.9277</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>sub034</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>-18.849675</v>
+          <t>sub042</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[0.4259, -1.6671, 13.2066, -0.625]</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>sub035</t>
+          <t>sub042</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14.39815</v>
+        <v>2.8351</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>sub036</t>
+          <t>sub043</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>13.25504</v>
+        <v>5.451275</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sub037</t>
+          <t>sub044</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-7.35112</v>
+        <v>-16.42671666666667</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>sub038</t>
+          <t>sub045</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>13.6427</v>
+        <v>12.946075</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sub039</t>
+          <t>sub046</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-25.39667142857143</v>
+        <v>-6.947366666666666</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>sub040</t>
+          <t>sub047</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-6.1154</v>
+        <v>17.7763</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>sub041</t>
+          <t>sub048</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>23.879275</v>
+        <v>-7.557799999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>sub042</t>
+          <t>sub049</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.8351</v>
+        <v>28.82125</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>sub043</t>
+          <t>sub050</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5.38045</v>
+        <v>18.2596</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>sub044</t>
+          <t>sub051</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-16.46566666666667</v>
+        <v>18.2747</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>sub045</t>
+          <t>sub052</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>12.910175</v>
+        <v>-10.02271666666667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>sub046</t>
+          <t>sub053</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-6.978699999999999</v>
+        <v>7.164175</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>sub047</t>
+          <t>sub054</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>17.701275</v>
+        <v>13.9457</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>sub048</t>
+          <t>sub055</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-7.6248</v>
+        <v>-5.1384</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>sub049</t>
+          <t>sub056</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>28.762975</v>
+        <v>14.03695555555556</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>sub050</t>
+          <t>sub057</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>18.20533333333333</v>
+        <v>22.63036666666666</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>sub051</t>
+          <t>sub058</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>18.242</v>
+        <v>10.39723333333333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>sub052</t>
+          <t>sub059</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-10.04545</v>
+        <v>4.017833333333333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>sub053</t>
+          <t>sub060</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>7.116875</v>
+        <v>-0.4429111111111108</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>sub054</t>
+          <t>sub061</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>13.901825</v>
+        <v>-29.18111666666667</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>sub055</t>
+          <t>sub062</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-5.211966666666666</v>
+        <v>13.7891</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>sub056</t>
+          <t>sub063</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>13.98993333333333</v>
+        <v>-14.5572375</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>sub057</t>
+          <t>sub064</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>22.57493333333333</v>
+        <v>9.429516666666666</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>sub058</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>10.31513333333333</v>
+          <t>sub064</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>[5.9425, 10.5661, 24.3238, 15.7722, -0.0275, 0.0]</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>sub059</t>
+          <t>sub065</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>4.430033333333333</v>
+        <v>-12.486275</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>sub060</t>
+          <t>sub066</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.4884888888888877</v>
+        <v>4.01774</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>sub061</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>-29.23713333333333</v>
+          <t>sub067</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>[9.5248, 13.9478, 29.8153]</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>sub062</t>
+          <t>sub067</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>13.71893333333333</v>
+        <v>17.76263333333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>sub063</t>
+          <t>sub068</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-14.6062125</v>
+        <v>-2.2895375</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>sub064</t>
+          <t>sub069</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>9.429516666666666</v>
+        <v>0.8957399999999993</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sub065</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>-12.53335</v>
+          <t>sub070</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>[5.392, 4.5351, 5.621]</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>sub066</t>
+          <t>sub070</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3.95328</v>
+        <v>5.1827</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>sub067</t>
+          <t>sub071</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>17.76263333333333</v>
+        <v>-13.54353333333333</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>sub068</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>-2.307275</v>
+          <t>sub071</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>[-14.4551, -17.2395, 15.4691, -25.0026, -39.5461, -0.487]</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>sub069</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0.8957399999999993</v>
+          <t>sub072</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>[2.9849, -1.5253, 27.0573]</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>sub070</t>
+          <t>sub072</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>5.1827</v>
+        <v>9.505633333333334</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>sub071</t>
+          <t>sub073</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-13.54353333333333</v>
+        <v>22.27183333333333</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>sub072</t>
+          <t>sub074</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>9.505633333333334</v>
+        <v>-29.9267</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>sub073</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>22.19813333333333</v>
+          <t>sub075</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[-4.063, 2.4531, -8.737, 6.713, -11.202]</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>sub074</t>
+          <t>sub075</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-29.98445</v>
+        <v>-2.96718</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>sub075</t>
+          <t>sub076</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-2.96718</v>
+        <v>21.76278</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>sub076</t>
+          <t>sub077</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>21.71322</v>
+        <v>2.38932</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>sub077</t>
+          <t>sub078</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2.3404</v>
+        <v>7.9212</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>sub078</t>
+          <t>sub079</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>7.404866666666667</v>
+        <v>0.6589400000000001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>sub079</t>
+          <t>sub080</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.3346600000000001</v>
+        <v>20.39676666666666</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>sub080</t>
+          <t>sub081</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>20.33836666666667</v>
+        <v>15.0824</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>sub081</t>
+          <t>sub082</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>15.0824</v>
+        <v>-1.698866666666667</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>sub082</t>
+          <t>sub083</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-1.767633333333333</v>
+        <v>-8.639466666666667</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>sub083</t>
+          <t>sub084</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-8.7142</v>
+        <v>7.5547</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>sub084</t>
+          <t>sub085</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>7.482400000000001</v>
+        <v>-9.257866666666667</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>sub085</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>-9.313633333333334</v>
+          <t>sub086</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>[10.243, 15.6213, 37.9131, 7.9005]</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>26.14566</v>
+        <v>26.1725</v>
       </c>
     </row>
     <row r="99">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-12.53596666666667</v>
+        <v>-12.0449</v>
       </c>
     </row>
     <row r="100">
@@ -1451,128 +1451,154 @@
           <t>sub089</t>
         </is>
       </c>
-      <c r="B100" t="n">
-        <v>-15.543675</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>[3.583, -0.3097, -43.7407, -21.7073]</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>sub090</t>
+          <t>sub089</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.5833750000000002</v>
+        <v>-15.543675</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>sub091</t>
+          <t>sub090</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>17.230125</v>
+        <v>-0.5234750000000012</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>sub092</t>
+          <t>sub091</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>3.00365</v>
+        <v>17.230125</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>sub093</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>3.632</v>
+          <t>sub092</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>[12.2909, 14.6711, -6.7655, -8.1819]</t>
+        </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>sub094</t>
+          <t>sub092</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>14.75548</v>
+        <v>3.00365</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>sub095</t>
+          <t>sub093</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-63.20434</v>
+        <v>3.85372</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>sub096</t>
+          <t>sub094</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>10.4381</v>
+        <v>14.80394</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>sub097</t>
+          <t>sub095</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>22.17703333333333</v>
+        <v>-63.16616</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>sub098</t>
+          <t>sub096</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2.32624</v>
+        <v>10.4381</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>sub099</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>5.345666666666666</v>
+          <t>sub096</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>[7.2305, 9.6764, 23.7608, 19.744, 2.2034, 0.0135]</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>sub100</t>
+          <t>sub097</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>23.98100000000001</v>
+        <v>22.2474</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>sub101</t>
+          <t>sub098</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>14.2872</v>
+        <v>2.36884</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>sub099</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>5.429866666666666</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>sub100</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>24.04823333333333</v>
       </c>
     </row>
   </sheetData>
